--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3755.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3755.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.248250726314247</v>
+        <v>0.5708487629890442</v>
       </c>
       <c r="B1">
-        <v>2.53726818072047</v>
+        <v>0.8488417863845825</v>
       </c>
       <c r="C1">
-        <v>4.195924904655358</v>
+        <v>4.541937828063965</v>
       </c>
       <c r="D1">
-        <v>3.426362632335979</v>
+        <v>2.075095653533936</v>
       </c>
       <c r="E1">
-        <v>1.153733527532205</v>
+        <v>0.7904588580131531</v>
       </c>
     </row>
   </sheetData>
